--- a/main code/data/101.xlsx
+++ b/main code/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2880 +448,2640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(인사)HK콜마</t>
+          <t>경제주식 토크쇼 ‘경주마’ 첫방송, 김동환 소장 출연</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>야놀자 인터파크 인수 확정, 2940억에 사업 지분 70% 확보</t>
+          <t>쿠팡, 유료회원제 '와우 멤버십' 월 4990원으로 인상</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>코오롱티슈진, 미국서 '인보사' 임상 3상 환자 투약 재개</t>
+          <t>키움증권, 신임 대표이사에 황현순 부사장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>백신 유효기간 시행…QR 찍고 '띠리링'은 통과, '딩동'은 출입금지</t>
+          <t>2295가구서 올 549건 손바뀜…대체 무슨일이</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[환율마감] 원/달러 환율 1.2원 오른 1188.0원</t>
+          <t>배당락 효과 사라지게 만든 개인 3조 순매수</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>현대카드, '순수 고객' 1000만 명 돌파</t>
+          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[특징주] 쇼박스, 오징어게임 시즌3 제작 논의 소식에 강세…12%↑</t>
+          <t>증산4·신길2·방학역·쌍문역…도심 개발로 1만가구 공급</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBS, 티와이홀딩스로 최대주주 변경</t>
+          <t>원주 농산물 도매시장 연말연시 휴장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>홍남기 “정치권 정책·성과 지적…사실과 다른 내용 국민께 알려야”</t>
+          <t>신세계 “서울옥션 주식 280억원어치 취득…지분율 4.8%”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>코스피, 양도세 회피 매물…기관·외인 쓸어담으며 3천선 회복</t>
+          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[마감시황] 외인·기관 쌍끌이…양대 시장 상승 마감</t>
+          <t>노선 줄여라…대한항공·아시아나 '조건부 합병'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>대한항공, 세계 최초로 전자 서류 작성 시스템 도입</t>
+          <t>'공공주택' 공약 쏟아지는데…4년후 LH 부채 '200조'</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1~2세대 실손 2700만명 '보험료 폭탄'…4세대 실손 전환 속도날까</t>
+          <t>서울시, 민간 재개발 21곳 선정 이어 공공재개발도 공모</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>쿠팡, 지역 청년 인재 양성·일자리 창출 앞장</t>
+          <t>Kospi falls on profit-taking, Omicron worries</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>올 들어서만 5억 올랐다…전국서 아파트값 가장 많이 오른 곳 봤더니</t>
+          <t>서민·소상공인 2조1000억 부실채권에 원금 최대 70% 감면</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>홍남기 부총리 “설 민생대책 1월초 발표…서민물가 안정 최우선”</t>
+          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>인천공항공사, 취약계층 지원 등 성금 10억 전달</t>
+          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>한국ESG경영개발원 창립총회</t>
+          <t>외국인에만 30만원 더…방통위, 통신 3사에 38억 과징금</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>코스피, 20.69p(0.69%) 오른 3020.24, 원/달러 환율 1.2원 오른 1188.00원 마감</t>
+          <t>중견기업이 본 내년 1분기 경기전망 '흐림'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>야놀자, 2940억원에 인터파크 인수 확정</t>
+          <t>Luxury imports fly off the lot driven by pandemic spending</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>홈플러스, 슛포러브와 백혈병·소아암 어린이 돕는다</t>
+          <t>인천공항공사 '자폐인 디자이너 사회활동 지원' 협약</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[집중진단] 실손보험 가입자 60%가 청구 ‘0건’인데…내년 대폭인상 소식 ‘분통’</t>
+          <t>중국 AI 개발하고 4조원 번 교수 “또 억만장자 탄생”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>방통위, 디지털성범죄물 삭제지원 기관·단체 15곳 지정</t>
+          <t>신세계건설, 평택 물류센터 신축공사 1646.7억원 수주</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'아너스 117', 전체 필지 조기 분양 마감</t>
+          <t>"제2 한강의 기적, 불가능하단 법 있나요"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>음성 극동대에 뷰티헬스솔루션센터 개소</t>
+          <t>안전기사 못 뽑고, 컨설팅費 수천만원…中企 "중대재해법 자포자기"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[스팟] 코스피, 20.69p(0.69%) 오른 3020.24 마감</t>
+          <t>올해 상승률 1위는 ‘위메이드맥스’···1500% 급등한 블록체인 게임개발업체</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>넉달만에 움츠러든 소비심리</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>중장기 성장 가능성 점쳐지는 SK바이오사이언스</t>
+          <t>국민은행, 내년부터 우대금리 혜택 부활…전세대출 최대 0.9% 금리인하 효과</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>쿠팡, 군산대와 물류전문가 양성 및 일자리 창출 MOU</t>
+          <t>보금자리론 내년 1월 금리 동결…연 3.0∼3.4%</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>삼성전자·SK하이닉스 상승에 반도체 ETF 웃었다…한달 수익률 8%</t>
+          <t>굿바이 오설록 명동점..올해 끝으로 폐점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4개월 만에 '소비심리' 꺾였다</t>
+          <t>메인콘텐츠, 여성가족부 '가족친화인증' 기업 선정</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>소비심리 4개월 만에 하락세 '물가·코로나 탓'</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>코스피, 배당락일 앞두고 강보합…3,020.24 마감</t>
+          <t>안양대 스마트시티공학과, 진화 주도하는  가상공간의 미래를 엿보다</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 인수 작업 마무리</t>
+          <t>장거리 능력 없는 LCC에…대한항공 '알짜노선' 나눠주라는 공정위</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>움츠러든 소비심리</t>
+          <t>손경식 "5인 미만 사업장, 근로기준법 적용 우려"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 품었다…지분 70% 2940억원에 인수</t>
+          <t>'시민 참여' 방역체계 논의 시동…동선 알림앱 검토</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>광주은행, 디지털·해외사업·소비자 보호 역점 조직개편</t>
+          <t>국힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>"인공지능株가 내년 증시 주도"…증권가가 주목한 투자는?</t>
+          <t>쿠팡, 유료회원제 '와우 멤버십' 요금 월 2천900원→4천990원</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>카카오에서 탄생한 '바이브컴퍼니'…디지털트윈 넘어 테크핀까지</t>
+          <t>‘100% 비대면 주담대’ 자신하는 카뱅…시중은행 상품과 차별화 보일까</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>세입자의 눈물…집값 상승 멈추니 뜀박질하는 월세 [부동산360]</t>
+          <t>신세계, 서울옥션에 280억 규모 지분 투자…"예술품 사업 강화"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>"미래 도시 체험하러 오세요"…미래도시 테마파크 '루카치키' 개관</t>
+          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>"하와이에 휘발유 수출한다"…현대오일뱅크, 석유 완제품 수출계약</t>
+          <t>한샘, 2022년 신학기 맞아 서재·자녀방가구 신제품 출시</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>"연말 내 택배 어쩌나"…CJ대한통운 총파업에 50만 건 묶여</t>
+          <t>반세기 쇳물 뽑아 韓 제조업 신화…'민족 고로'의 위대한 퇴장</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>허닭, SBA '서울기업 온택트 채용관' 고용 우수기업 선정</t>
+          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>이스트스프링자산운용 “내년 저평가된 아시아 시장 주목”</t>
+          <t>돼지고기 온라인 경매 시범 운영…2023년 본격 도입</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>동남권 4개 철도 정식개통…2024년까지 수도권 2시간대 이동</t>
+          <t>쿠쿠 트윈프레셔, 11월 누적 판매 82% '껑충'</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>與 정책 '역주행'에 우려 드러낸 홍남기, "정부 성과 정확히 전달 해달라"</t>
+          <t>공정위, SK스퀘어어 지주사 기준 충족 심사결과 통지</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[속보] 코스피, 20.69포인트 오른 3020.24에 마감</t>
+          <t>네이버 쇼핑, 일본서 야후재팬과 통합하기로…대만·스페인도 진출</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[코스피] 20.69p(0.69%) 오른 3020.24 마감</t>
+          <t>한미글로벌, 사회복지법인 ‘따뜻한동행’에 17억원 기부</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>코스닥 16.08P 상승한 1027.44(1.59%↑) 마감</t>
+          <t>문성혁 장관 “HMM 독립 바라지만…아직은 때 아냐”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[코스닥] 16.08p(1.59%) 오른 1027.44 마감</t>
+          <t>아시아서 덩치 키우는 머스크…HMM은 '흠…'</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>내달초 '설민생대책' 발표…홍남기 "서민물가 안정 최우선"</t>
+          <t>삼성전자, 中 시안 반도체 사업장 생산 라인 축소</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>코스피 20.69P 상승한 3020.24(0.69%↑) 마감</t>
+          <t>신세계, 미술품 경매사 서울옥션에 280억원 투자…지분율 4.8%(종합)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>더네이쳐홀딩스, 주당 200원 현금배당…31일 기준</t>
+          <t>HDC현산, 근로자 중심 안전문화 정착…안전경영실 신설</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>코로나 이후 소상공인 매출 월평균 92만원 감소</t>
+          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[코스닥(마감)]전 거래일보다 16.08포인트(1.59%) 오른 1,027.44 마감</t>
+          <t>신세계, 서울옥션 주식 85.7만주 280억원 취득</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[표]KRX 금 시세(12월 28일)</t>
+          <t>"올해 세계 주식시장 주인공, '개인'"…동학개미는 '갸웃'</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[코스피(마감)] 전 거래일보다 20.74포인트(0.69%) 오른 3,020.29 마감</t>
+          <t>연 3%, 2억7천까지 빌려준다…토스뱅크 1월1일 11시부터 대출재개</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[시황]코스피 3020.24(▲0.69%), 코스닥 1027.44(▲1.59%), 원·달러 환율 1188.0원(▲1.2원) 마감</t>
+          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>정태순 한국해운협회장 "2022년 세계 3대 해운강국 도약 원년 될 것"</t>
+          <t>통신 대란 때 공공 와이파이 활용 가능</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[달러/원] 환율 1.2원 오른 1188.0원 마감</t>
+          <t>위중증·오미크론 또 최다…'거리두기 연장 가능성'</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SSG닷컴 `보복소비`로 골프·명품·호캉스 수요↑</t>
+          <t>A24, 연말 맞아 뷰티제품 최대 50% 할인</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…“글로벌 트래블테크 기업 육성”</t>
+          <t>전문 쇼핑몰 캐시미어 브랜드 ‘칼레이트’, 한컬렉션 매장 입점</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>청년·신혼부부 매입임대주택 입주자 모집…2318가구 규모</t>
+          <t>오늘의 증시 메모[12월 30일]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[마감]코스피 외국인 4431억 순매수</t>
+          <t>[오후초대석] 코스피, 美 증시에 비해 ‘지지부진’ 이유는?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[마감]코스피 개인 19613억 순매도</t>
+          <t>문성혁 해수부 장관 “올해 해운산업은 트리플 크라운, 국가발전에 일조”</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[마감]코스피 기관 15191억 순매수</t>
+          <t>코로나19 사태 2년…“타인과 멀어지고 빚만 늘었다”</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[마감]코스피 상승..3020.24(+0.69%)</t>
+          <t>비트코인 폭락설?…"10만불 달성 가능성 높아" [가상자산 투자 판이 바뀐다]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[마감]코스닥 개인 11289억 순매도</t>
+          <t>수수료는 매번 깎으면서...툭하면 카드사 동원</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[마감]코스닥 기관 8246억 순매수</t>
+          <t>신한은행, 본부장급 인사…17명 '젊은 인재' 등용</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[마감]코스닥 외국인 3179억 순매수</t>
+          <t>넷플릭스 급성장에 유료방송 살리기…'채널개편 수시로'</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[마감]코스닥 상승..1027.44(+1.59%)</t>
+          <t>대한항공-아시아나 결합 조건부 승인…경쟁력 약화 불씨 여전</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>경남은행, 인사 단행…"안정적 영업환경 조성"</t>
+          <t>Samsung SDI launches battery brand PRiMX</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>은행연합회 상무이사에 박창옥 본부장 임명...신년 인사 단행</t>
+          <t>코로나 팬데믹 속 이혼 사상 최대 감소</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>환경과학원, 국민 몸속 환경유해물질 "3년 전보다 대부분 감소"</t>
+          <t>한수원 "원전, 초저탄소 에너지원…환경보전에 유리"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>현대제철, 현대비앤지스틸에 1224억원 규모 자산양도</t>
+          <t>국민은행, 전세자금·주택담보대출 우대금리 최대 0.3%P↑</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>홍남기 "설 민생대책 1월초 발표…서민물가 안정 최우선"</t>
+          <t>건설현장 안전관리 비상..중소건설사 줄도산 우려</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2040년 전국 도시 2시간대 이동한다…5년간 철도·도로 160조 투자</t>
+          <t>수젠텍·제노레이 등 11곳 혁신형 의료기기 기업 선정</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[표]증시 자금 동향(12월 27일)</t>
+          <t>[기업] 현대글로비스, 中 청두에 철도 운송 회사 설립</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>올해 라이프스타일 선도 아파트 브랜드 'e편한세상' 1위</t>
+          <t>[기업] 토스뱅크, 1월 1일 11시부터 신규 대출 재개</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>소비자원 “마스크 가드 10개 중 8개 방역효과 떨어뜨려”</t>
+          <t>[기업] LG전자, 전국에 무인매장 10곳 더 늘린다</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 2940억원에 인수 확정…"여가 사업 확장"</t>
+          <t>[기업] 기아 EV6, 독일 3대 자동차 전문지 잇달아 호평</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>축사하는 권칠승 장관</t>
+          <t>2022 글로벌 선거 다 모았다…증시 흔들 정치 이슈 [김보미의 뉴스카페]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>포르쉐, WEC 하이퍼카 클래스에 출전할 레이스카 일부 공개</t>
+          <t>"구리 값 내년에 더 오른다"…질주하는 대창·이구·서원</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>교보생명 IPO 청신호… 풋옵션 가처분 취소 소송서 승리</t>
+          <t>아진피앤피 "골판지 상자 무게 확 줄일 것"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[인사] 은행연합회</t>
+          <t>미술품에 꽂힌 신세계 정유경...서울옥션에 280억 지분 투자</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[마감]환율 상승..1188.0(+1.2원)</t>
+          <t>홍원학 신임 삼성화재 사장 자사주 1500주 매입</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>제26회 중소벤처기업 금융지원 시상식</t>
+          <t>300만불 이하 해외투자자 내년부터 사업보고서 안낸다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>홍남기 "내년 1월 설 민생안정대책 발표"</t>
+          <t>[초점] 실손보험 문제는 '비급여'…손보사 4세대 전환 '안간힘'</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>‘토지70% 확보’ 조건에 소송까지…암초 만난 도심복합사업</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>새해 앞두고 '결심상품' 매출 증가</t>
+          <t>마이크로디지탈, 코로나항체키트 35.6억원 공급계약</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>새해 결심상품 '특수'</t>
+          <t>문성혁 “HMM 매각은 아직 때 아냐…잘 키워 독립시킬 날 빨리오길”</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>"왜 떨어졌는지 납득 안돼"…재개발 후보지 선정 '희비 교차'</t>
+          <t>`희토류` 무기화하는 중국…주목해야 할 투자 아이디어 [김보미의 뉴스카페]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>새해에는 다이어트를</t>
+          <t>"외주제작 프로그램 저작권 70% 이상 방송사가 소유"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'결심상품' 관심 증가</t>
+          <t>투자자 60% "내년 증시 상승"…"해외투자 비중 확대" [2022 증시전망 - 투자자 천명 설문]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>홍남기 "내년 주택가격 안정…설민생대책 1월초 발표"</t>
+          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>캠코, 내년부터 채무자 연체이자 감면·상환 유예 지원</t>
+          <t>신세계, 서울옥션에 280억 투자 "미술품 사업 강화"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>새해 '결심상품' 건강·홈트 열풍</t>
+          <t>코스피, 배당락 영향에 3000 아래로…코스닥은 1020선 방어</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…글로벌 트래블테크 기업 목표</t>
+          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…사업부문 지분 70%, 2940억원에 인수</t>
+          <t>피엘라벤코리아 ‘2022년 클래식 코리아’ 사전 답사 마쳐</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>중국 시안 ‘봉쇄’ 일주일째… 삼성전자 반도체 생산 줄인다</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>혁신 '메기'의 배신…빅테크 전방위 규제 본격화(종합)</t>
+          <t>평사원 입사 30년 만에 사장 등극…역대 최대매출 올린 이 남자</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>새해 결심상품 매출 '껑충'</t>
+          <t>“OLED가 새로운 ‘경험’ 된다”…LG디스플레이, 차세대 TV 패널 공개</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>전국 지하 철도시설물 레이더로 탐사한다…지반침하 사고 예방</t>
+          <t>'사명' 바꾼 두올물산 "바이오 집중"…합병에 달렸다</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>인보사 부활 신호탄…코오롱티슈진, 3상 임상 투약 재개</t>
+          <t>중견기업 경기전망 2분기 연속 하락···식음료 제외 대부분 업종 하락세</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>올해 통신분쟁 조정신청 KT가 가장 많았다</t>
+          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KB국민카드, 'KB국민 소노시즌2 카드' 출시</t>
+          <t>대한항공·아시아나 결합 ‘조건부 승인’…“슬롯 반납, 운수권 재배분”</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>이지네트웍스-남부안농협, '농촌사랑 컴퓨터 나눔' 기증행사</t>
+          <t>세스코, 바이러스 케어 시장 공략</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>부천대장·고양창릉 1.7만가구 사전청약..분양가 84㎡ 6.7억</t>
+          <t>중진공 '넥스트 유니콘'에 헬스케어 벤처 등 4곳</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NH농협은행, 중소벤처기업 금융지원 대통령 표창 수상</t>
+          <t>롯데백화점서 열린 체험형 전시 ‘어벤져스 스테이션’ 주목 받아 특별 갈라쇼 진행</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>코로나19 여파속 소상공인 사업체↑ 매출·영업이익↓</t>
+          <t>국민은행도 우대금리 복구…주담대·전세대출 금리 낮아진다</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>중견주택업체, 다음달에도 분양 ‘한파’ 계속</t>
+          <t>[영상뉴스] 포항제철 1고로·호남화력 역사 속으로…반세기 임무 마치고 퇴역</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>은행연합회, 박창옥 상무이사 선임...부서장 인사 시행</t>
+          <t>홍원학 신임 삼성화재 사장 자사주 매입…"책임경영 의지"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>휴온스바이오파마, 보툴리눔 톡신 ‘HU-045’ 미간주름 임상 2상 승인</t>
+          <t>"중국 물가압력, 생활용품·식료품부터 한국 전이"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>네이버, 물류·라이브커머스 등 기술지원으로 소상공인 성장 도와</t>
+          <t>"아직도 부족하다"…중국, 리튬 확보 전쟁 연말까지 이어진다</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SPC그룹, 2021년도 임직원 헌혈 송년회 진행</t>
+          <t>"살고 싶습니다"…끝나지 않는 코로나, 동네가게가 사라진다</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>삼성 한종희·경계현·고동진, KT 구현모 대표, 공학한림원 정회원 됐다</t>
+          <t>"김프 투자용 우려"…NH농협카드도 1인당 해외인출 한도 도입</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021 올해의 디지털 뉴딜 우수사례 시상식</t>
+          <t>교육교부금 3배 늘 때 학령인구 45%↓...KDI "전면개편해야"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>코로나19 충격… 소상공인 87만명 줄고 영업이익 반토막</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>농협은행, 중소벤처기업 금융지원 대통령 표창 수상</t>
+          <t>문성혁 “황금알 낳는 거위, HMM 매각은 아직 때 아니다”</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>인터파크, 전자상거래 사업부문 물적분할 결정</t>
+          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CES 2022 삼성·현대·SK 총 출동…한국 대기업이 보여줄 핵심 키워드는?</t>
+          <t>중소기업 절반 가까이 "올해 자금 사정 악화"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4개월만에 꺾인 소비 심리…집값 전망 1년 7개월만에 최저</t>
+          <t>대성학원, 2023학년도 N수생을 위한 현장 설명회 진행</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>“부사장車는 G90” 삼성 인사개편에 현대차 ‘함박웃음’</t>
+          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1300만명 봉쇄령 中 시안…삼성 반도체, 사태 장기화 촉각</t>
+          <t>삼성엔지니어링, 삼성전자 평택공장 공사 3300억원 수주</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>실손 청구 전산화 해 넘긴다…보험 입법 공백(종합)</t>
+          <t>배당락일, 삼천피 또 무너졌다…전문가 "연초 변동성 대비해야"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>성신양회, 탄소포집 기술 개발 국책과제 선정…2025년까지 390억 투입</t>
+          <t>대한항공-아시아나 통합, 소비자 피해 막을 ‘묘수’ 못찾은 채 전원회의 상정</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[특징주] '고요의 바다' 엇갈린 반응 속...버킷스튜디오 +3.26%↑</t>
+          <t>KB저축은행, 수십억원 횡령 사고 발생…"해당 직원 수사 중"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>전기료·가스 요금, 대선 이후 다 오른다…한국전력·한국가스공사 주가 강세</t>
+          <t>국토부·서울시, 30일부터 공공재개발 후보지 2차 공모</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>대한항공, 고객 작성서류 '전면 디지털화'... 전세계 항공사 최초</t>
+          <t>Social distancing rules influencing behavior less</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>"충분히 팔았다"던 머스크, 테슬라 또 팔았다…한번 더?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>레고·바비인형…완구에 푹빠진 '어른이'들</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>헬릭스미스 구원투수 박영주 "실패분석 끝…3상 성공 올인"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>현대건설, '힐스테이트 평택 더퍼스트' 분양</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>'호랑이띠 동갑' 삼성 한종희·LG 조주완, 미래 먹거리 발굴 집중</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>정윤석 신일전자 사장 승진</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>"통신3사 28㎓ 5G기지국 연말까지 4.5만개 구축 목표 이행률 1%도 안돼"</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>인천공항공사 ‘자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>'사랑나눔' 생활공작소·엠마…생활용품·매트리스 등 기부</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>인천공항공사, ‘자폐인 디자이너 사회활동 지원’ 나서</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>[포토] 이런 사진관 어떤가요</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>[표]유형별 펀드 자금 동향(12월 28일)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>[인사] 신한은행</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>한진家, 6억원대 양도세 취소소송 항소심도 패소</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>[공모주 투자노트] 게임 넘어 메타버스로…국책과제도 잇따라 수행</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>인사말 하는 조경식 과기정통부 2차관</t>
+          <t>K-메타버스 ETF 순자산 5천억 돌파</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>조경식 2차관, '올해의 디지털 뉴딜 우수사례 시상식'</t>
+          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>골프예능 방송 직후 난리난 유현주 프로가 입은 그 옷은</t>
+          <t>[인사] 광주은행</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>내년 가상자산 상속·증여, 당일 전후 한 달간 평균가격으로 신고·납부해야</t>
+          <t>금감원, 2011~2014년 회계감리 지적 사례 27건 추가 공개</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>[경제계 인사]BNK금융지주 外</t>
+          <t>“친환경·미래먹거리 발굴” SPC삼립 ESG상생경영 박차</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>현대건설, 힐스테이트 아파트 인테리어 디자인 새단장</t>
+          <t>[표] 주요 증시 지표 (12월 29일)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>애경케미칼, '이웃사랑 물품 나눔 행사'... 취약계층에 '전기 장판 715세트' 전달</t>
+          <t>마이크로디지탈, 35억 규모 코로나 대용량 항체진단키트 공급 계약</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>도화엔지니어링, 760억원 규모 日 태양광발전소 건설공사 2건 수주</t>
+          <t>마이크로디지탈, 170억 규모 코로나 진단키트 공급계약 해지</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>격변의 전자담배 시장… KT&amp;G;, '원조' 제치고 1위 오르나</t>
+          <t>[ IBK창공 '씨엔티테크' 육성기업 단신 ] 팟캐스트 '나이비'·웹 메타버스 '넷스트림'</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>[인사] JB금융그룹 전북은행</t>
+          <t>코스피, 약보합으로 거래 마감‥통신·금융주 하락세</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>광주은행, 부행장보 4명 내부 발탁…"성장동력 강화"</t>
+          <t>[산업 디지털 전환 정책 성과]산업 디지털 전환 법 근거 마련…후속 이행계획 속도</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>현대제철, 현대비앤지스틸에 스테인리스 사업부 자산 양도</t>
+          <t>"공정위 심사 지연에"…대한항공, 아시아나 합병 세번째 정정공시</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>국내 기업 85% “플라스틱 폐기물 문제 해결 동참 의향 있다”</t>
+          <t>[산업 디지털 전환 정책 성과]기업 맞춤형 디지털 전환 과제 발굴하고, 맞춤형 컨설팅 성과</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>키프라임리서치, 국내 유일 민간 '영장류 연구센터' 착공</t>
+          <t>[산업 디지털 전환 정책 성과]김상모 산업기술융합정책관 "내년 산업 디지털 전환 '붐' 조성할 것"</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>아마존 입점 성공 비결은…"철저하게 미국다운 제품 승부수"</t>
+          <t>300만불 이하 해외투자자, 연간사업보고서 안 낸다</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>코로나19 속에도…지난해 소상공인 사업체 13만개 증가</t>
+          <t>[人사이트]권이균 K-CCUS 추진단장 "성공적인 CCUS 생태계 만들겠다"</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>소상공인 온라인 판로 지원  현대차 ‘기프트카 ’ 캠페인</t>
+          <t>중국 생산자물가, 한국 소비자물가 밀어올려</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>원-위안 직거래 시장 시장조성자 우리은행 등 11개 선정</t>
+          <t>애경산업 ‘사랑과 존경의 연탄 나눔’ 전달식</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>휠라, 당일 배송 '오늘도착' 서비스 개시</t>
+          <t>신한금융, 지배구조 투명성 강화…준법경영·부패방지경영 '동시 인증'</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>정부, 내년 탄소중립 기술투자 두 배 늘린다</t>
+          <t>[인사]신일전자, 정윤석 대표이사 사장 승진</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">이산화탄소를 메탄올로…성신양회 ‘탄소자원화’ 시동　　</t>
+          <t>1월 보금자리론 금리 동결···최저 연 3%</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'백신의 시대'… 차백신연구소,면역증강제 기술 부각</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[fn마켓워치]신한벤처·DS·휴맥스, 디지털 외식 '먼키'에 230억 투자</t>
+          <t>[인사] 홈플러스</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>의생명기업 케이엠지, 부산에서 김해로 본사·공장 이전</t>
+          <t>국민은행도 대출 우대금리 부활…최대 0.3%p 확대</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>은행연합회, 상무이사에 박창옥 본부장 선임</t>
+          <t>우리은행 이어 KB국민은행도 우대금리 높여…최대 0.3%p↑</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>에일리·이무진·우지원까지...'방구석 콘서트'에 빠진 그들</t>
+          <t>국내 인구이동 11개월째↓…서울서 21개월 연속 유출</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>‘최고령 석탄발전’ 호남화력발전소, 반세기 만에 퇴역한다</t>
+          <t>SK가 전파하는 '선한 영향력'.... 사회적기업 판로 열고 날개 달아준다 [사회적가치 실현하는 기업]</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>날개 단 K-푸드…"농수산식품 올 수출액 114억달러 전망"</t>
+          <t>삼성전자, 배당락에 다시 ‘7만전자’로 하락…기관 대량 매도</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DB손해보험, 사랑의열매에 10억 기부…"코로나19 대응 지원"</t>
+          <t>'K건설기계' 중국 의존도 낮아져…북미·신흥시장 수출 '성공적'</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>지난해 소상공인 87만명 줄고 부채금액은 47.7조 늘어</t>
+          <t>금감원 "온라인게임 요금채권, 회원 연령별로 대손충당금 쌓아야"</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>광주은행 부행장보 4명 발탁 인사…조직개편</t>
+          <t>신임 서금원장·신복위원장에 이재연 금융연구원 부원장 내정</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>권광석 우리은행장 은탑산업훈장…중소벤처기업 금융지원 시상식</t>
+          <t>오미크론 유입 막자… 싱가포르발 항공권 신규판매도 일시 중단</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>‘토스’ 운영사 비바리퍼블리카, 내년 상반기 8번째 투자 유치…기업가치 23조 vs 상장 전 고평가</t>
+          <t>하나금융그룹, MSCI ESG 평가 A등급 획득…1단계 향상</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ADB "전 세계 송금액 올해 40조원 증가 전망"</t>
+          <t>봉쇄 일주일 만에…삼성전자, 결국 中시안 반도체 '감산'(종합)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>윌링스, 영광 태양광 발전소에 326억 EPC 공급</t>
+          <t>HDC아이파크몰, 친환경 쇼핑몰 구현</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
+          <t>우리은행, 삼성물산 에버랜드와 맞손…생태계 보호</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>민간의 과감한 도전 유도…산업데이터 보호 및 활용 촉진 기반 마련</t>
+          <t>디지털 소상공인 6만명 육성..."배달수수료도 지원"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>“흑호 기운 듬뿍”… 새해 맞이 ‘호랑이 먹거리’ 쏟아진다</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>초정대상 수상자 김두관 의원</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>초정대상 수상자 김두관 의원</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>초정대상 수상자 류호정 의원</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>초정대상 수상자 류호정 의원</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>기업은행, 혁신기술 테스트베드 3기 참여기업 8곳 선정</t>
+          <t>오용수 과기부 방송진흥정책국장, 유로방송업계 상생협의체 브리핑</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[올댓차이나] '디폴트' 헝다집단, 달러채 이자 2건 지급기한 맞아</t>
+          <t>쿠팡 와우멤버십 月 4990원으로</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>세븐일레븐, '생명 나눔 헌혈 캠페인' 진행</t>
+          <t>"브랜드 의류 저렴하게 장만하세요"… 새해맞이 겨울옷 70% 할인</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>막오른 4차 사전청약…서울 대방 7.2억·고양 창릉 6.7억</t>
+          <t>광고모델 '로지'·쇼호스트 '루시'… 가상인간 활동영역 넓힌다</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>기업은행 ‘IBK 퍼스트랩’ 3기 참여기업 8곳 선정</t>
+          <t>거리두기 강화에 '체험 공간' 승부수… 유통가 전략 재정비</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>은행연합회 본부장·부서장 인사…"ESG 확산·디지털 전환 등 현안 대응"</t>
+          <t>에르메스 vs 테슬라... 명품株에 꽂힌 30대 여성들, 수익률 봤더니</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>원‧위안 직거래시장 시장조성자에 국민은행 등 11곳 선정</t>
+          <t>심부름 앱 '해주세요' 헬퍼, 월 500만원 벌었다…최다 수익</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>부산~울산 30분대 출퇴근 가능…비수도권 첫 광역전철 운행 시작</t>
+          <t>조달청 혁신제품에 대구경북 3개사 제품 지정</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>세진중공업, 한국석유공사와 울산 남항사업 MOU체결</t>
+          <t>[인사] 신한은행, 본부장 인사 단행</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>한화디펜스, 화생방정찰차 후속양산 등 6877억원 규모 공급계약</t>
+          <t>문성혁 “HMM 팔 때 아냐... 빚 다 갚을 때 시장평가 달라질 것”</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>미래에셋의 해외영토 확장.. 연말 3000억원 넘어서나</t>
+          <t>강원에너지, 스웨덴 회사와 114억원 패키지 계약</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>유튜브부터 마이데이터까지...리테일 확대하는 증권사</t>
+          <t>10월 출생아 '역대 최저' 2.1만명…올해 인구 3.3만명 감소</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>대선주자 주식시장 공약...증권가 평가는</t>
+          <t>하루만에 3조 되사들인 동학개미..."넉달만에 최대 규모"</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>롯데, 사회적 약자 위해 70억 쾌척</t>
+          <t>[인사]홈플러스</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>예탁결제원, 부산 민관합동 코워킹스페이스 오픈 기념식 개최</t>
+          <t>아마존·AT&amp;T;·GM·비자…배런스가 추천한 내년 美 유망 주식 10선</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[인사] 건설공제조합</t>
+          <t>[표]코스피200지수 옵션 시세(12월 29일)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>은행연합회 박창옥 상무 승진... 정기 인사 단행</t>
+          <t>[신상품라운지]'규소수' 등장…조윈, '시오200 플러스' 출시</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>中 재정·금융당국, 내년 186조원+α 감세·유동성 공급 '경기부양'</t>
+          <t>10월 출생아 2만1천명 '역대 최저'…인구 24개월째 자연감소</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>코로나19에 소상공인 영업이익 '반토막'…매출도 90만원↓</t>
+          <t>교역조건, 8년8개월만에 가장 나빠져…"수입금액이 수출금액 넘어선 영향"</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>부진한 자동차 시장, 전기차로 살아날까</t>
+          <t>배당락일 주가 2990선 후퇴…고배당 금융주 '급락'</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>탄소중립으로 아낀 에너지 절감액으로 이웃 돕는 김해시민</t>
+          <t>금융위, 신임 신용회복위원장에 이재연 금융연구원 부원장 내정</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>'방송사 간 소유제한 폐지' 시행령 개정 입법예고</t>
+          <t>유암코-IBK, 디알모빌리티에 400억 투자</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>농협, 계약재배 51명에 채소가격안정제 등 15억6천만 원 지원</t>
+          <t>얼어붙은 기업 자금조달 시장… 크레딧 스프레드 올들어 최대</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>마스크 가드, 차단 효과 떨어지고 유해물질까지</t>
+          <t>KB證 조직개편 단행... WM·IB·디지털 강화</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>폴라리스오피스, 블록체인 사업 국내 첫 S2E</t>
+          <t>금감원, 2011∼2014년 감리 지적사례 회계포탈에 공개</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021.12.28 15:12</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>참여연대 "이통3사, 10년간 LTE 사업 18조6000억원 수익···'반값 요금' 실현해야"</t>
+          <t>삼성효과 기대 '아산 탕정 월드메르디앙 웰리지' 1월 분양</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>‘오징어게임’ 시즌3도 제작 추진…황동혁 감독 “논의 중”</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>글로벌 제조강국·경제안보 실현, 수출 7000억 달러 도전</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>대기업 공익법인, 일정 규모 내부 거래시 공시 의무화...30일 시행</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>"영산강 수질악화는 광주 제1하수처리장 방류수 탓"</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>택배기사 1700명 무기한 총파업 돌입…"배송 못한 상자들 쌓여"</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>[인사]건설공제조합</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>화이자 먹는 치료제 1차 2만명분 도입…충분할까</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>토스증권, ‘미성년자 비대면 주식 계좌 개설’ 결국 잠정 중단</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>경기 부정적 전망…충북 소비자심리지수 100.5, 전월 比↓</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>강원도, 올해 18개 기업·3조원 투자 유치</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>마켓컬리, 연말 선물하기 1위는?…'홈파티용 바비큐'</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>양재역 일대, 의료특구·AI 혁신지구 호재로 '몸값' 오른다</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>'달서 롯데캐슬 센트럴스카이' 오피스텔 경쟁률 평균 40대 1…아파트 내달 5일 1순위 해당지역 청약</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>광주은행, '디지털', '글로벌' 방점 조직개편 실시</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>"공급망 축소 우려, 디커플링 당분간 지속" [한미증시 디커플링]</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>삼성전자, CES 2022에 C랩 전시관 운영</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>연기금, 올해 삼성전자 팔고 사들인 주식은?</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>[제24회 상호 존중하는 좋은경영대상] '보톡스 1위' 휴젤, 기업문화 개선 노력 박차</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>오미크론으로 꺽인 소비심리··· 4개월 만에 하락</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>민주당 구미시의원 4명 "대구취수원 이전 정치적으로 이용말라" 촉구</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
